--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,60 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,86 +726,95 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,28 +900,31 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,22 +965,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -963,13 +990,16 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1007,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,28 +1053,31 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,28 +1085,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,8 +1122,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1095,39 +1135,45 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,57 +1437,63 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3">
+        <v>500</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,16 +1682,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1618,11 +1711,14 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1746,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1664,8 +1763,8 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1679,37 +1778,43 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
+      <c r="E46" s="3">
+        <v>600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,22 +1842,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1766,8 +1874,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1780,8 +1891,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>100</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
+      <c r="E54" s="3">
+        <v>600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,22 +2096,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>700</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
@@ -1995,95 +2126,107 @@
       <c r="K57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>200</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
+      <c r="E60" s="3">
+        <v>800</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="3">
-        <v>1400</v>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H60" s="3">
         <v>1400</v>
       </c>
       <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2254,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
+      <c r="E66" s="3">
+        <v>800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="3">
-        <v>1400</v>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H66" s="3">
         <v>1400</v>
       </c>
       <c r="I66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
         <v>-15300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
+      <c r="E72" s="3">
+        <v>-15300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
         <v>-16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
+      <c r="E76" s="3">
+        <v>-200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,11 +2860,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,13 +3165,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2956,19 +3186,22 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
       <c r="J94" s="3">
         <v>100</v>
       </c>
       <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3105,11 +3351,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3123,10 +3369,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3403,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>200</v>
       </c>
       <c r="G102" s="3">
         <v>200</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,64 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,92 +733,101 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +873,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,40 +908,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
       <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,8 +992,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -975,16 +1002,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -993,13 +1020,16 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,31 +1037,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1077,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1056,28 +1090,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1085,31 +1122,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1125,8 +1165,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1138,10 +1178,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1149,31 +1192,34 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1250,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1285,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1245,31 +1297,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1277,31 +1332,34 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1495,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1440,28 +1510,31 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1469,31 +1542,34 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1600,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1533,68 +1612,74 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1707,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="F41" s="3">
+        <v>500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,19 +1775,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1714,11 +1807,14 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,8 +1845,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1766,8 +1865,8 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1781,63 +1880,69 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
+      <c r="F46" s="3">
+        <v>600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1845,8 +1950,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1856,14 +1964,14 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -1877,8 +1985,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1894,8 +2005,8 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>100</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -1909,8 +2020,11 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2090,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2005,8 +2125,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,8 +2160,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2048,29 +2174,32 @@
       <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
+      <c r="F54" s="3">
+        <v>600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,8 +2227,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2108,14 +2239,14 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>700</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
@@ -2129,8 +2260,11 @@
       <c r="L57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2140,29 +2274,32 @@
       <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2170,31 +2307,34 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2204,29 +2344,32 @@
       <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
+      <c r="F60" s="3">
+        <v>800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="3">
-        <v>1400</v>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I60" s="3">
         <v>1400</v>
       </c>
       <c r="J60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,8 +2400,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,8 +2435,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,8 +2540,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2396,29 +2554,32 @@
       <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
+      <c r="F66" s="3">
+        <v>800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="3">
-        <v>1400</v>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I66" s="3">
         <v>1400</v>
       </c>
       <c r="J66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,8 +2730,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2570,29 +2744,32 @@
       <c r="E72" s="3">
         <v>-15300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+      <c r="F72" s="3">
+        <v>-15300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,8 +2870,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2698,29 +2884,32 @@
       <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
+      <c r="F76" s="3">
+        <v>-200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,45 +2940,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2797,31 +2992,34 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3032,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,11 +3062,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3292,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3325,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3395,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3177,7 +3407,7 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3189,19 +3419,22 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>100</v>
-      </c>
       <c r="K94" s="3">
         <v>100</v>
       </c>
       <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,8 +3585,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3354,11 +3600,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3372,10 +3618,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,36 +3655,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,112 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,69 +778,81 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,34 +959,40 @@
         <v>-200</v>
       </c>
       <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,8 +1044,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1005,66 +1058,78 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,13 +1143,15 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1093,63 +1160,75 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,11 +1247,11 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1181,45 +1260,57 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,13 +1631,19 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1513,63 +1652,75 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1879,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,25 +1957,31 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -1810,34 +1995,40 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1848,8 +2039,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1868,11 +2065,11 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1883,55 +2080,67 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1944,17 +2153,23 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1967,17 +2182,17 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1988,8 +2203,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2008,11 +2229,11 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>100</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2023,8 +2244,14 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,13 +2408,19 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
@@ -2177,29 +2428,35 @@
       <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="G54" s="3">
+        <v>600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2242,17 +2503,17 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
@@ -2263,8 +2524,14 @@
       <c r="M57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2277,20 +2544,20 @@
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2298,78 +2565,96 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="G60" s="3">
+        <v>800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15300</v>
+        <v>-15000</v>
       </c>
       <c r="E72" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="F72" s="3">
         <v>-15300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="G72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="G76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,11 +3462,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3328,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,23 +3851,29 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3422,19 +3881,25 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>100</v>
-      </c>
       <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,8 +4073,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3597,20 +4088,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -3621,10 +4112,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,39 +4155,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -749,77 +753,83 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -827,32 +837,35 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
+        <v>300</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,34 +985,37 @@
         <v>-200</v>
       </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
       <c r="I14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,13 +1072,14 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1064,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1082,54 +1109,60 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,16 +1178,17 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1166,69 +1200,75 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,8 +1293,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1266,51 +1306,57 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,17 +1704,20 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1658,69 +1728,75 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1967,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,40 +1977,43 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,28 +2053,31 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2001,19 +2094,22 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
@@ -2030,8 +2126,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2045,13 +2141,16 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
@@ -2071,8 +2170,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2086,49 +2185,55 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="I46" s="3">
+        <v>600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,12 +2243,12 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2159,8 +2264,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2168,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2188,14 +2296,14 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2209,34 +2317,37 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>100</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,16 +2537,19 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>600</v>
       </c>
       <c r="F54" s="3">
         <v>600</v>
@@ -2434,29 +2560,32 @@
       <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+      <c r="I54" s="3">
+        <v>600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2619,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2509,14 +2640,14 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>700</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
@@ -2530,8 +2661,11 @@
       <c r="O57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2550,29 +2684,32 @@
       <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>200</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2583,37 +2720,40 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2624,7 +2764,7 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
@@ -2632,29 +2772,32 @@
       <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="I60" s="3">
+        <v>800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
-        <v>1400</v>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L60" s="3">
         <v>1400</v>
       </c>
       <c r="M60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3013,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2870,7 +3028,7 @@
         <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
@@ -2878,29 +3036,32 @@
       <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="I66" s="3">
+        <v>800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
-        <v>1400</v>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L66" s="3">
         <v>1400</v>
       </c>
       <c r="M66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,19 +3251,22 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-15300</v>
       </c>
       <c r="G72" s="3">
         <v>-15300</v>
@@ -3100,29 +3274,32 @@
       <c r="H72" s="3">
         <v>-15300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+      <c r="I72" s="3">
+        <v>-15300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-16200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,19 +3427,22 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-200</v>
@@ -3264,29 +3450,32 @@
       <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+      <c r="I76" s="3">
+        <v>-200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,11 +3667,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,25 +4084,28 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3887,19 +4117,22 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
       <c r="N94" s="3">
         <v>100</v>
       </c>
       <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4322,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,11 +4334,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4100,11 +4346,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4118,10 +4364,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -756,83 +760,89 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -840,32 +850,35 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,34 +1008,37 @@
         <v>-200</v>
       </c>
       <c r="H14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I14" s="3">
         <v>-100</v>
       </c>
       <c r="J14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,17 +1099,18 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1094,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1112,57 +1139,63 @@
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,19 +1212,20 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1203,28 +1237,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,43 +1269,46 @@
         <v>400</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1296,8 +1336,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1309,10 +1349,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1320,43 +1363,46 @@
         <v>400</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,8 +1492,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1452,43 +1504,46 @@
         <v>400</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1496,43 +1551,46 @@
         <v>400</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,20 +1774,23 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1731,28 +1801,31 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1760,43 +1833,46 @@
         <v>400</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,8 +1915,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1848,92 +1927,98 @@
         <v>400</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2054,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>500</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,31 +2146,34 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2097,22 +2190,25 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2129,8 +2225,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2144,17 +2240,20 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2173,8 +2272,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2188,52 +2287,58 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2246,12 +2351,12 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2267,8 +2372,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2276,8 +2381,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2299,14 +2407,14 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2320,8 +2428,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2346,11 +2457,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,19 +2663,22 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>600</v>
       </c>
       <c r="G54" s="3">
         <v>600</v>
@@ -2563,29 +2689,32 @@
       <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,13 +2750,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2643,14 +2774,14 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>700</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
@@ -2664,8 +2795,11 @@
       <c r="P57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2687,29 +2821,32 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>200</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2723,37 +2860,40 @@
         <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2767,7 +2907,7 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
@@ -2775,29 +2915,32 @@
       <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="J60" s="3">
+        <v>800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
-        <v>1400</v>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M60" s="3">
         <v>1400</v>
       </c>
       <c r="N60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,8 +3171,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3031,7 +3189,7 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
@@ -3039,29 +3197,32 @@
       <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="J66" s="3">
+        <v>800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
-        <v>1400</v>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3">
         <v>1400</v>
       </c>
       <c r="N66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,22 +3425,25 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-15300</v>
       </c>
       <c r="H72" s="3">
         <v>-15300</v>
@@ -3277,29 +3451,32 @@
       <c r="I72" s="3">
         <v>-15300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="J72" s="3">
+        <v>-15300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-16200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,22 +3613,25 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
-        <v>100</v>
-      </c>
       <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -3453,29 +3639,32 @@
       <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="J76" s="3">
+        <v>-200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,57 +3707,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3576,43 +3771,46 @@
         <v>400</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3670,11 +3869,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4175,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,28 +4314,31 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4120,19 +4350,22 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>100</v>
-      </c>
       <c r="O94" s="3">
         <v>100</v>
       </c>
       <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4568,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4337,11 +4583,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4349,11 +4595,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4367,10 +4613,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4662,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>200</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -2436,26 +2436,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,245 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,16 +1023,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>-200</v>
@@ -1011,34 +1050,40 @@
         <v>-200</v>
       </c>
       <c r="I14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,23 +1151,25 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1124,78 +1177,90 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,25 +1278,27 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1240,98 +1307,110 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1339,11 +1418,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,57 +1431,69 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1448,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,26 +1910,32 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1804,75 +1943,87 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,37 +2328,43 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2193,11 +2378,17 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2207,14 +2398,14 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2228,11 +2419,11 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2243,23 +2434,29 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2275,11 +2472,11 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2290,55 +2487,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,15 +2563,15 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2375,17 +2584,23 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2410,17 +2625,17 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2431,43 +2646,49 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -2478,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2619,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,25 +2911,31 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
@@ -2692,29 +2943,35 @@
       <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,19 +3010,21 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>100</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2777,17 +3038,17 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
@@ -2798,16 +3059,22 @@
       <c r="Q57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>700</v>
+      </c>
+      <c r="S57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -2824,20 +3091,20 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -2845,13 +3112,19 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
@@ -2863,45 +3136,51 @@
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
@@ -2910,37 +3189,43 @@
         <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="K60" s="3">
+        <v>800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,8 +3271,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3033,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,16 +3483,22 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
@@ -3192,37 +3507,43 @@
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="K66" s="3">
+        <v>800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-15300</v>
       </c>
       <c r="J72" s="3">
         <v>-15300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="K72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-16200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
-        <v>100</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="K76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3872,11 +4269,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4223,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,35 +4770,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>300</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4353,19 +4812,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
-      </c>
       <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4580,32 +5071,32 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4616,10 +5107,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -776,81 +780,87 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,16 +871,16 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -878,32 +888,35 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,19 +1046,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>-200</v>
@@ -1056,34 +1076,37 @@
         <v>-200</v>
       </c>
       <c r="K14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L14" s="3">
         <v>-100</v>
       </c>
       <c r="M14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,26 +1179,27 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1183,16 +1210,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1201,66 +1228,72 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,13 +1313,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1295,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1313,107 +1347,113 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>400</v>
       </c>
       <c r="G21" s="3">
         <v>400</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1424,8 +1464,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1437,63 +1477,69 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>400</v>
       </c>
       <c r="G23" s="3">
         <v>400</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>400</v>
       </c>
       <c r="G26" s="3">
         <v>400</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>400</v>
       </c>
       <c r="G27" s="3">
         <v>400</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,13 +1983,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1931,14 +2001,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1949,81 +2019,87 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>400</v>
       </c>
       <c r="G33" s="3">
         <v>400</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>400</v>
       </c>
       <c r="G35" s="3">
         <v>400</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>400</v>
       </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>500</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,40 +2424,43 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
         <v>1200</v>
       </c>
       <c r="F43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2384,11 +2477,14 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2404,11 +2500,11 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2425,8 +2521,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2440,8 +2536,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,15 +2550,15 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2478,8 +2577,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2493,61 +2592,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
         <v>1800</v>
       </c>
       <c r="F46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>600</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2569,12 +2674,12 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2590,8 +2695,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,14 +2739,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2678,20 +2789,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,28 +3040,31 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>1800</v>
       </c>
       <c r="F54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>600</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
@@ -2949,29 +3075,32 @@
       <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>600</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,22 +3142,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3044,14 +3175,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>700</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
@@ -3065,8 +3196,11 @@
       <c r="S57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3077,7 +3211,7 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -3097,29 +3231,32 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>200</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3127,10 +3264,10 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
@@ -3139,51 +3276,54 @@
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>1100</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
@@ -3195,7 +3335,7 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
@@ -3203,29 +3343,32 @@
       <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>800</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
-        <v>1400</v>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
       <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,19 +3644,22 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
@@ -3513,7 +3671,7 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
@@ -3521,29 +3679,32 @@
       <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>800</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
-        <v>1400</v>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,8 +3946,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3787,19 +3961,19 @@
         <v>-14400</v>
       </c>
       <c r="F72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-15300</v>
       </c>
       <c r="K72" s="3">
         <v>-15300</v>
@@ -3807,29 +3981,32 @@
       <c r="L72" s="3">
         <v>-15300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>-15300</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-16200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,8 +4170,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3999,19 +4185,19 @@
         <v>700</v>
       </c>
       <c r="F76" s="3">
+        <v>700</v>
+      </c>
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -4019,29 +4205,32 @@
       <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>-200</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>400</v>
       </c>
       <c r="G81" s="3">
         <v>400</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4275,11 +4474,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,37 +5003,40 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4818,19 +5048,22 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>100</v>
-      </c>
       <c r="R94" s="3">
         <v>100</v>
       </c>
       <c r="S94" s="3">
+        <v>100</v>
+      </c>
+      <c r="T94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,11 +5317,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5083,11 +5329,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5095,11 +5341,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5113,10 +5359,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5417,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5177,48 +5429,51 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
-      </c>
-      <c r="N102" s="3">
-        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>200</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42094</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -783,89 +787,95 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -874,16 +884,16 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -891,32 +901,35 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,22 +1066,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>-200</v>
@@ -1079,34 +1099,37 @@
         <v>-200</v>
       </c>
       <c r="L14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,29 +1206,30 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1213,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1231,69 +1258,75 @@
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1350,92 +1384,98 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>400</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1452,11 +1492,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1467,8 +1507,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1480,66 +1520,72 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>400</v>
       </c>
       <c r="H26" s="3">
         <v>400</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>400</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2004,14 +2074,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2022,84 +2092,90 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>400</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>400</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42094</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
       </c>
       <c r="L41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>500</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,43 +2517,46 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1200</v>
       </c>
       <c r="F43" s="3">
         <v>1200</v>
       </c>
       <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2480,11 +2573,14 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2503,11 +2599,11 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2524,8 +2620,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2539,8 +2635,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2553,15 +2652,15 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2580,8 +2679,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2595,94 +2694,100 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1800</v>
       </c>
       <c r="F46" s="3">
         <v>1800</v>
       </c>
       <c r="G46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>600</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>600</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,8 +2803,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2707,8 +2812,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2742,14 +2850,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2763,8 +2871,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2792,20 +2903,20 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>100</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3048,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,31 +3166,34 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>1800</v>
       </c>
       <c r="G54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
@@ -3078,29 +3204,32 @@
       <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
+      <c r="N54" s="3">
+        <v>600</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3273,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,14 +3285,14 @@
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3178,14 +3309,14 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>700</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>700</v>
@@ -3199,13 +3330,16 @@
       <c r="T57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -3214,7 +3348,7 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -3234,29 +3368,32 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>200</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3270,63 +3407,66 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1100</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
@@ -3338,7 +3478,7 @@
         <v>700</v>
       </c>
       <c r="K60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
@@ -3346,29 +3486,32 @@
       <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>800</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
-        <v>1400</v>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q60" s="3">
         <v>1400</v>
       </c>
       <c r="R60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,8 +3566,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,22 +3802,25 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -3674,7 +3832,7 @@
         <v>700</v>
       </c>
       <c r="K66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
@@ -3682,29 +3840,32 @@
       <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>800</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
-        <v>1400</v>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q66" s="3">
         <v>1400</v>
       </c>
       <c r="R66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,13 +4120,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="E72" s="3">
         <v>-14400</v>
@@ -3964,19 +4138,19 @@
         <v>-14400</v>
       </c>
       <c r="G72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-15300</v>
       </c>
       <c r="L72" s="3">
         <v>-15300</v>
@@ -3984,29 +4158,32 @@
       <c r="M72" s="3">
         <v>-15300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
+      <c r="N72" s="3">
+        <v>-15300</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,13 +4356,16 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E76" s="3">
         <v>700</v>
@@ -4188,19 +4374,19 @@
         <v>700</v>
       </c>
       <c r="G76" s="3">
+        <v>700</v>
+      </c>
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
       <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -4208,29 +4394,32 @@
       <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
+      <c r="N76" s="3">
+        <v>-200</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42094</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>400</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4622,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4477,11 +4676,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,8 +4974,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4769,55 +4986,58 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
-      </c>
-      <c r="O89" s="3">
-        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>200</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5058,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4894,8 +5115,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,40 +5233,43 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5051,19 +5281,22 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>100</v>
-      </c>
       <c r="S94" s="3">
         <v>100</v>
       </c>
       <c r="T94" s="3">
+        <v>100</v>
+      </c>
+      <c r="U94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,8 +5551,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5320,23 +5566,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5344,11 +5590,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5362,10 +5608,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>200</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,296 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42277</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42094</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,28 +1102,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>-200</v>
@@ -1102,34 +1141,40 @@
         <v>-200</v>
       </c>
       <c r="M14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,35 +1258,37 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1243,90 +1296,102 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1369,16 +1436,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1387,92 +1454,104 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1480,8 +1559,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1495,14 +1574,14 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1510,11 +1589,11 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1523,69 +1602,81 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2077,17 +2216,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2095,87 +2234,99 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42277</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42094</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,49 +2699,55 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2576,31 +2761,37 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2608,8 +2799,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2623,11 +2814,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2638,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2655,18 +2852,18 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2682,11 +2879,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2697,8 +2894,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2706,58 +2909,64 @@
         <v>1900</v>
       </c>
       <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="P46" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2782,18 +2991,18 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2806,17 +3015,23 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2853,17 +3068,17 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2874,8 +3089,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2906,23 +3127,23 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -2933,8 +3154,14 @@
       <c r="U49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3110,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,8 +3414,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3178,28 +3429,28 @@
         <v>1900</v>
       </c>
       <c r="E54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
@@ -3207,29 +3458,35 @@
       <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,31 +3533,33 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3312,17 +3573,17 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>700</v>
-      </c>
-      <c r="R57" s="3">
-        <v>700</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
@@ -3333,28 +3594,34 @@
       <c r="U57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>700</v>
+      </c>
+      <c r="W57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3371,20 +3638,20 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -3392,8 +3659,14 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3410,69 +3683,75 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
-        <v>700</v>
-      </c>
       <c r="I60" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
@@ -3481,37 +3760,43 @@
         <v>700</v>
       </c>
       <c r="L60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3569,8 +3854,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3628,8 +3919,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,28 +4114,34 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
-        <v>700</v>
-      </c>
       <c r="I66" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
@@ -3835,37 +4150,43 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-14400</v>
       </c>
       <c r="G72" s="3">
         <v>-14400</v>
       </c>
       <c r="H72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-15300</v>
       </c>
       <c r="N72" s="3">
         <v>-15300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="O72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-16200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-16500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-16400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E76" s="3">
         <v>700</v>
       </c>
       <c r="F76" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G76" s="3">
         <v>700</v>
       </c>
       <c r="H76" s="3">
+        <v>700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>700</v>
+      </c>
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
-        <v>100</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42277</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42094</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4679,11 +5076,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,8 +5498,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5118,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,47 +5689,53 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>300</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5284,19 +5743,25 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>100</v>
-      </c>
       <c r="U94" s="3">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>100</v>
+      </c>
+      <c r="W94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,8 +6039,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5563,44 +6054,44 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5611,10 +6102,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42369</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42277</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42185</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42094</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -803,28 +807,31 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,76 +842,79 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
@@ -912,16 +922,16 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -929,32 +939,35 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,31 +1125,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>-200</v>
@@ -1147,34 +1167,37 @@
         <v>-200</v>
       </c>
       <c r="O14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P14" s="3">
         <v>-100</v>
       </c>
       <c r="Q14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,38 +1286,39 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1302,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1320,13 +1347,16 @@
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,64 +1364,67 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,19 +1448,20 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1442,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1460,93 +1494,99 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>400</v>
       </c>
       <c r="K21" s="3">
         <v>400</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,14 +1596,14 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1580,11 +1620,11 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1595,8 +1635,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1608,75 +1648,81 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>400</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1786,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>400</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>400</v>
       </c>
       <c r="K27" s="3">
         <v>400</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,20 +2262,23 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2222,14 +2292,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2240,93 +2310,99 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>400</v>
       </c>
       <c r="K33" s="3">
         <v>400</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>400</v>
       </c>
       <c r="K35" s="3">
         <v>400</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42369</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42277</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42185</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42094</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2661,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2584,64 +2671,67 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>500</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2795,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2714,43 +2807,43 @@
         <v>1700</v>
       </c>
       <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1200</v>
       </c>
       <c r="I43" s="3">
         <v>1200</v>
       </c>
       <c r="J43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>100</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2767,11 +2860,14 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2796,14 +2892,14 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2820,8 +2916,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2835,8 +2931,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2858,15 +2957,15 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2885,8 +2984,8 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2900,8 +2999,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2909,64 +3011,67 @@
         <v>1900</v>
       </c>
       <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1800</v>
       </c>
       <c r="I46" s="3">
         <v>1800</v>
       </c>
       <c r="J46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>600</v>
       </c>
       <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>600</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2997,15 +3102,15 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3021,8 +3126,8 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3030,8 +3135,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3074,14 +3182,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3095,8 +3203,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3133,20 +3244,20 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
-        <v>100</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3543,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3429,31 +3555,31 @@
         <v>1900</v>
       </c>
       <c r="E54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1800</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
       </c>
       <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
@@ -3464,29 +3590,32 @@
       <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
+      <c r="Q54" s="3">
+        <v>600</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,19 +3665,20 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -3555,14 +3686,14 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3579,14 +3710,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>700</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
@@ -3600,8 +3731,11 @@
       <c r="W57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3612,10 +3746,10 @@
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3624,7 +3758,7 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -3644,34 +3778,37 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>200</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>200</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
@@ -3689,49 +3826,52 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3739,22 +3879,22 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
@@ -3766,7 +3906,7 @@
         <v>700</v>
       </c>
       <c r="N60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
@@ -3774,29 +3914,32 @@
       <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>800</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S60" s="3">
-        <v>1400</v>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T60" s="3">
         <v>1400</v>
       </c>
       <c r="U60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4003,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4071,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4275,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,22 +4287,22 @@
         <v>1300</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
       </c>
       <c r="J66" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -4156,7 +4314,7 @@
         <v>700</v>
       </c>
       <c r="N66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
@@ -4164,29 +4322,32 @@
       <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="Q66" s="3">
+        <v>800</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S66" s="3">
-        <v>1400</v>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T66" s="3">
         <v>1400</v>
       </c>
       <c r="U66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,22 +4641,25 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-14400</v>
       </c>
       <c r="H72" s="3">
         <v>-14400</v>
@@ -4494,19 +4668,19 @@
         <v>-14400</v>
       </c>
       <c r="J72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-15300</v>
       </c>
       <c r="O72" s="3">
         <v>-15300</v>
@@ -4514,29 +4688,32 @@
       <c r="P72" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+      <c r="Q72" s="3">
+        <v>-15300</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-16200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,8 +4913,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4739,13 +4925,13 @@
         <v>600</v>
       </c>
       <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>700</v>
       </c>
       <c r="H76" s="3">
         <v>700</v>
@@ -4754,19 +4940,19 @@
         <v>700</v>
       </c>
       <c r="J76" s="3">
+        <v>700</v>
+      </c>
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4774,29 +4960,32 @@
       <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+      <c r="Q76" s="3">
+        <v>-200</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42369</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42277</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42185</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42094</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>400</v>
       </c>
       <c r="K81" s="3">
         <v>400</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5082,11 +5281,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
-      </c>
-      <c r="R89" s="3">
-        <v>200</v>
       </c>
       <c r="S89" s="3">
         <v>200</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5720,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5922,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5704,40 +5934,40 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>100</v>
-      </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5749,19 +5979,22 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>100</v>
-      </c>
       <c r="V94" s="3">
         <v>100</v>
       </c>
       <c r="W94" s="3">
+        <v>100</v>
+      </c>
+      <c r="X94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6288,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6054,11 +6300,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6066,23 +6312,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6090,11 +6336,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6108,10 +6354,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
-      </c>
-      <c r="R102" s="3">
-        <v>200</v>
       </c>
       <c r="S102" s="3">
         <v>200</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>CMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42369</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42277</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42185</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42094</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -810,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -845,79 +852,82 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
@@ -925,16 +935,16 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -942,32 +952,35 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,34 +1145,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>-200</v>
@@ -1170,34 +1190,37 @@
         <v>-200</v>
       </c>
       <c r="P14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q14" s="3">
         <v>-100</v>
       </c>
       <c r="R14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,41 +1313,42 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1332,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
@@ -1350,81 +1377,87 @@
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
       <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,22 +1482,23 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1479,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1497,101 +1531,107 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>400</v>
       </c>
       <c r="L21" s="3">
         <v>400</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
         <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1599,14 +1639,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1623,11 +1663,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1638,8 +1678,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1651,78 +1691,84 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>400</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +1835,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>400</v>
       </c>
       <c r="L26" s="3">
         <v>400</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>400</v>
       </c>
       <c r="L27" s="3">
         <v>400</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,23 +2332,26 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2295,14 +2365,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2313,96 +2383,102 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>400</v>
       </c>
       <c r="L33" s="3">
         <v>400</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>400</v>
       </c>
       <c r="L35" s="3">
         <v>400</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42369</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42277</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42185</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42094</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
       </c>
       <c r="L41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>500</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,8 +2888,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2810,43 +2903,43 @@
         <v>1700</v>
       </c>
       <c r="F43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1200</v>
       </c>
       <c r="J43" s="3">
         <v>1200</v>
       </c>
       <c r="K43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2863,11 +2956,14 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2895,14 +2991,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2919,8 +3015,8 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2934,41 +3030,44 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2987,8 +3086,8 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3002,76 +3101,82 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E46" s="3">
         <v>1900</v>
       </c>
       <c r="F46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1800</v>
       </c>
       <c r="J46" s="3">
         <v>1800</v>
       </c>
       <c r="K46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>600</v>
       </c>
       <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>600</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3105,15 +3210,15 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3129,8 +3234,8 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3138,8 +3243,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3185,14 +3293,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3206,8 +3314,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3247,20 +3358,20 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
-        <v>100</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,43 +3669,46 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
         <v>1900</v>
       </c>
       <c r="F54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1800</v>
       </c>
       <c r="J54" s="3">
         <v>1800</v>
       </c>
       <c r="K54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
@@ -3593,29 +3719,32 @@
       <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>600</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,22 +3796,23 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -3689,14 +3820,14 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3713,14 +3844,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>700</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
@@ -3734,8 +3865,11 @@
       <c r="X57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3749,10 +3883,10 @@
         <v>800</v>
       </c>
       <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -3761,7 +3895,7 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3781,29 +3915,32 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>200</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>200</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3811,7 +3948,7 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -3829,49 +3966,52 @@
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3882,22 +4022,22 @@
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
@@ -3909,7 +4049,7 @@
         <v>700</v>
       </c>
       <c r="O60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
@@ -3917,29 +4057,32 @@
       <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>800</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T60" s="3">
-        <v>1400</v>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U60" s="3">
         <v>1400</v>
       </c>
       <c r="V60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,8 +4149,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,8 +4433,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4290,22 +4448,22 @@
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1100</v>
       </c>
       <c r="K66" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
@@ -4317,7 +4475,7 @@
         <v>700</v>
       </c>
       <c r="O66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
@@ -4325,29 +4483,32 @@
       <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>800</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T66" s="3">
-        <v>1400</v>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U66" s="3">
         <v>1400</v>
       </c>
       <c r="V66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,25 +4815,28 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-14400</v>
       </c>
       <c r="I72" s="3">
         <v>-14400</v>
@@ -4671,19 +4845,19 @@
         <v>-14400</v>
       </c>
       <c r="K72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-15300</v>
       </c>
       <c r="P72" s="3">
         <v>-15300</v>
@@ -4691,29 +4865,32 @@
       <c r="Q72" s="3">
         <v>-15300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
+      <c r="R72" s="3">
+        <v>-15300</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-16200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,25 +5099,28 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E76" s="3">
         <v>600</v>
       </c>
       <c r="F76" s="3">
+        <v>600</v>
+      </c>
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>700</v>
       </c>
       <c r="I76" s="3">
         <v>700</v>
@@ -4943,19 +5129,19 @@
         <v>700</v>
       </c>
       <c r="K76" s="3">
+        <v>700</v>
+      </c>
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4963,29 +5149,32 @@
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
+      <c r="R76" s="3">
+        <v>-200</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42369</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42277</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42185</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42094</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>400</v>
       </c>
       <c r="L81" s="3">
         <v>400</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5417,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5284,11 +5483,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
-      </c>
-      <c r="S89" s="3">
-        <v>200</v>
       </c>
       <c r="T89" s="3">
         <v>200</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5941,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5789,8 +6010,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6152,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5937,40 +6167,40 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>100</v>
-      </c>
       <c r="H94" s="3">
+        <v>100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5982,19 +6212,22 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>100</v>
-      </c>
       <c r="W94" s="3">
         <v>100</v>
       </c>
       <c r="X94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6534,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6303,11 +6549,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6315,23 +6561,23 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6339,11 +6585,11 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6357,10 +6603,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
-      </c>
-      <c r="S102" s="3">
-        <v>200</v>
       </c>
       <c r="T102" s="3">
         <v>200</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>
